--- a/figures/5_Ascent/BarChart.xlsx
+++ b/figures/5_Ascent/BarChart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Third Stage Specific Impulse</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>SPARTAN Structural Mass</t>
-  </si>
-  <si>
-    <t>Third Stage Mass</t>
   </si>
   <si>
     <t>SPARTAN Fuel Mass</t>
@@ -219,8 +216,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.5437593084481274E-2"/>
-                  <c:y val="-8.4875562720133283E-17"/>
+                  <c:x val="-3.7117009516749427E-2"/>
+                  <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -230,12 +227,44 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1A49-477F-B5FD-D03DD2BE4239}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{091F4D60-1E95-4503-B236-6D0FEA6AD7FC}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>.0</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -293,31 +322,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$H$1</c:f>
+              <c:f>Sheet1!$A$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Third Stage Drag</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>SPARTAN Fuel Mass</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Maximum Dynamic Pressure</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>SPARTAN Fuel Mass</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Third Stage Mass</c:v>
+                  <c:v>SPARTAN Structural Mass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SPARTAN Structural Mass</c:v>
+                  <c:v>SPARTAN Drag</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SPARTAN Drag</c:v>
+                  <c:v>SPARTAN Specific Impulse</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>SPARTAN Specific Impulse</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>Third Stage Specific Impulse</c:v>
                 </c:pt>
               </c:strCache>
@@ -325,33 +351,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$H$2</c:f>
+              <c:f>Sheet1!$A$2:$G$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.5</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.9</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5999999999999996</c:v>
+                  <c:v>11.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -372,11 +395,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="201946688"/>
-        <c:axId val="201947472"/>
+        <c:axId val="207552224"/>
+        <c:axId val="207553008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201946688"/>
+        <c:axId val="207552224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +439,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201947472"/>
+        <c:crossAx val="207553008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -424,7 +447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201947472"/>
+        <c:axId val="207553008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -485,7 +508,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201946688"/>
+        <c:crossAx val="207552224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,56 +1506,50 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="C2" s="1">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="1">
-        <v>0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="E2" s="1">
-        <v>-1.5</v>
+        <v>-2</v>
       </c>
       <c r="F2" s="1">
-        <v>-1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G2" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.5999999999999996</v>
+        <v>11.6</v>
       </c>
     </row>
   </sheetData>

--- a/figures/5_Ascent/BarChart.xlsx
+++ b/figures/5_Ascent/BarChart.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5FF504-F447-4A0B-BEB0-DB9E3059D603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,21 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Third Stage Specific Impulse</t>
-  </si>
-  <si>
-    <t>SPARTAN Specific Impulse</t>
-  </si>
-  <si>
-    <t>SPARTAN Drag</t>
-  </si>
-  <si>
-    <t>SPARTAN Structural Mass</t>
-  </si>
-  <si>
-    <t>SPARTAN Fuel Mass</t>
   </si>
   <si>
     <t>Maximum Dynamic Pressure</t>
@@ -36,11 +25,26 @@
   <si>
     <t>Third Stage Drag</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Scramjet Accelerator Fuel Mass</t>
+  </si>
+  <si>
+    <t>Scramjet Accelerator Structural Mass</t>
+  </si>
+  <si>
+    <t>Scramjet Accelerator Drag</t>
+  </si>
+  <si>
+    <t>Scramjet Specific Impulse</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -97,7 +101,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -133,7 +137,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -203,12 +206,10 @@
               <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-1A49-477F-B5FD-D03DD2BE4239}"/>
-                </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -216,8 +217,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-3.7117009516749427E-2"/>
-                  <c:y val="0"/>
+                  <c:x val="-3.2956717732883389E-2"/>
+                  <c:y val="-3.4694469519536142E-18"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -229,13 +230,64 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="4.0042808419709891E-2"/>
+                      <c:h val="5.5814697916556882E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-B164-49DB-A396-DC2E7AB28322}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8573275432117554E-2"/>
+                  <c:y val="-7.6677004291064761E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-B164-49DB-A396-DC2E7AB28322}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6934315380582348E-2"/>
+                  <c:y val="-7.6677004291064761E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B164-49DB-A396-DC2E7AB28322}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -262,9 +314,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-B164-49DB-A396-DC2E7AB28322}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -300,9 +354,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -329,19 +382,19 @@
                   <c:v>Third Stage Drag</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>SPARTAN Fuel Mass</c:v>
+                  <c:v>Scramjet Accelerator Fuel Mass</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Maximum Dynamic Pressure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SPARTAN Structural Mass</c:v>
+                  <c:v>Scramjet Accelerator Structural Mass</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>SPARTAN Drag</c:v>
+                  <c:v>Scramjet Accelerator Drag</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>SPARTAN Specific Impulse</c:v>
+                  <c:v>Scramjet Specific Impulse</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Third Stage Specific Impulse</c:v>
@@ -379,7 +432,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-1A49-477F-B5FD-D03DD2BE4239}"/>
             </c:ext>
@@ -1190,7 +1243,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1284,6 +1343,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1319,6 +1395,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1494,11 +1587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,22 +1601,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1552,6 +1645,11 @@
         <v>11.6</v>
       </c>
     </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
